--- a/data-raw/butte_releasefish.xlsx
+++ b/data-raw/butte_releasefish.xlsx
@@ -1,57 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inigo\Projects\jpe-butte-edi\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA5EC4-19CA-4D7B-A53C-8F89475BE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Release Fish EDI"/>
-    <sheet r:id="rId4" name="Release_Fish_EDI" sheetId="2"/>
+    <sheet name="Release_Fish_EDI" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Release_Fish_EDI">'Release_Fish_EDI'!$A$1:$D$9</definedName>
+    <definedName name="Release_Fish_EDI">Release_Fish_EDI!$A$1:$D$9</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>projectDescriptionID</t>
+  </si>
+  <si>
+    <t>releaseFishID</t>
+  </si>
+  <si>
+    <t>releaseID</t>
+  </si>
+  <si>
+    <t>forkLength</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,36 +56,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,93 +66,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +130,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -258,6 +164,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -292,9 +199,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,253 +375,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="16.40625"/>
-    <col customWidth="true" min="3" max="3" width="12.7421875"/>
-    <col customWidth="true" min="4" max="4" width="13.9140625"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>projectDescriptionID</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>releaseFishID</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>releaseID</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>forkLength</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>256</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>261</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>263</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>264</v>
       </c>
     </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>265</v>
       </c>
     </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>266</v>
       </c>
     </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>267</v>
       </c>
     </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="4">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
-        <v>268</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>projectDescriptionID</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>releaseFishID</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>releaseID</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>forkLength</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
-        <v>256</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0">
-        <v>261</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
-        <v>11</v>
-      </c>
-      <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0">
-        <v>263</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
-        <v>264</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0">
-        <v>265</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0">
-        <v>266</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0">
-        <v>7</v>
-      </c>
-      <c r="C8" s="0">
-        <v>267</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>268</v>
       </c>
     </row>
